--- a/MT-ACcharger V1.0.0/MT-ACcharger V1.0.0贴片文件/MT- ACcharger  V1.0.0BOM.xlsx
+++ b/MT-ACcharger V1.0.0/MT-ACcharger V1.0.0贴片文件/MT- ACcharger  V1.0.0BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="198">
   <si>
     <t>Item</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>翠绿高亮,5V,25mA,SMD,0805,亿光</t>
-  </si>
-  <si>
-    <t>红色高亮,5V,25mA,SMD,0805,亿光</t>
   </si>
   <si>
     <t>贴片二极管</t>
@@ -891,6 +888,14 @@
   </si>
   <si>
     <t>R10, R12, R15, R17, R81</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0805,0R, ±1%,1/8W,RoHS,风华</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电阻</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -2172,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2190,7 +2195,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2231,10 +2236,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="10">
         <v>7</v>
@@ -2253,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" s="10">
         <v>5</v>
@@ -2269,10 +2274,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5" s="10">
         <v>2</v>
@@ -2288,10 +2293,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="F6" s="10">
         <v>2</v>
@@ -2307,10 +2312,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -2326,10 +2331,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="F8" s="10">
         <v>2</v>
@@ -2345,10 +2350,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="F9" s="10">
         <v>1</v>
@@ -2367,7 +2372,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" s="10">
         <v>2</v>
@@ -2386,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" s="10">
         <v>4</v>
@@ -2402,10 +2407,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F12" s="10">
         <v>2</v>
@@ -2424,7 +2429,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" s="10">
         <v>3</v>
@@ -2443,7 +2448,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="10">
         <v>2</v>
@@ -2462,7 +2467,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="10">
         <v>2</v>
@@ -2478,10 +2483,10 @@
         <v>7</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="F16" s="10">
         <v>2</v>
@@ -2500,7 +2505,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
@@ -2519,7 +2524,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F18" s="10">
         <v>2</v>
@@ -2535,10 +2540,10 @@
         <v>7</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="F19" s="10">
         <v>8</v>
@@ -2557,7 +2562,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" s="10">
         <v>3</v>
@@ -2595,7 +2600,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22" s="10">
         <v>26</v>
@@ -2614,7 +2619,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="10">
         <v>3</v>
@@ -2633,7 +2638,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F24" s="10">
         <v>4</v>
@@ -2652,7 +2657,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="10">
         <v>1</v>
@@ -2671,7 +2676,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F26" s="10">
         <v>2</v>
@@ -2690,7 +2695,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" s="10">
         <v>1</v>
@@ -2709,7 +2714,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F28" s="10">
         <v>1</v>
@@ -2725,10 +2730,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="10">
         <v>1</v>
@@ -2744,10 +2749,10 @@
         <v>7</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
@@ -2763,10 +2768,10 @@
         <v>7</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="23" t="s">
         <v>95</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>96</v>
       </c>
       <c r="F31" s="10">
         <v>1</v>
@@ -2782,10 +2787,10 @@
         <v>26</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" s="10">
         <v>2</v>
@@ -2801,10 +2806,10 @@
         <v>26</v>
       </c>
       <c r="D33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="F33" s="10">
         <v>2</v>
@@ -2820,10 +2825,10 @@
         <v>26</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F34" s="10">
         <v>3</v>
@@ -2839,10 +2844,10 @@
         <v>26</v>
       </c>
       <c r="D35" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="F35" s="10">
         <v>1</v>
@@ -2861,7 +2866,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F36" s="10">
         <v>1</v>
@@ -2880,7 +2885,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" s="10">
         <v>9</v>
@@ -2899,7 +2904,7 @@
         <v>29</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F38" s="10">
         <v>46</v>
@@ -2918,7 +2923,7 @@
         <v>30</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F39" s="10">
         <v>3</v>
@@ -2937,7 +2942,7 @@
         <v>31</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F40" s="10">
         <v>1</v>
@@ -2956,7 +2961,7 @@
         <v>33</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F41" s="10">
         <v>6</v>
@@ -2975,7 +2980,7 @@
         <v>35</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F42" s="10">
         <v>3</v>
@@ -2994,7 +2999,7 @@
         <v>37</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" s="10">
         <v>2</v>
@@ -3013,7 +3018,7 @@
         <v>39</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F44" s="10">
         <v>5</v>
@@ -3029,10 +3034,10 @@
         <v>40</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F45" s="10">
         <v>1</v>
@@ -3051,7 +3056,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F46" s="10">
         <v>1</v>
@@ -3067,10 +3072,10 @@
         <v>43</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F47" s="10">
         <v>1</v>
@@ -3089,7 +3094,7 @@
         <v>45</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F48" s="10">
         <v>3</v>
@@ -3101,14 +3106,14 @@
         <v>48</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>46</v>
+      <c r="C49" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F49" s="10">
         <v>1</v>
@@ -3121,13 +3126,13 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>48</v>
-      </c>
       <c r="E50" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F50" s="10">
         <v>7</v>
@@ -3140,13 +3145,13 @@
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="E51" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F51" s="10">
         <v>4</v>
@@ -3159,13 +3164,13 @@
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="F52" s="6">
         <v>4</v>
@@ -3178,13 +3183,13 @@
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F53" s="10">
         <v>3</v>
@@ -3197,13 +3202,13 @@
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F54" s="10">
         <v>3</v>
@@ -3216,13 +3221,13 @@
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="E55" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F55" s="10">
         <v>1</v>
@@ -3235,13 +3240,13 @@
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="E56" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F56" s="10">
         <v>8</v>
@@ -3254,13 +3259,13 @@
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F57" s="10">
         <v>2</v>
@@ -3273,13 +3278,13 @@
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F58" s="10">
         <v>1</v>
@@ -3292,13 +3297,13 @@
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F59" s="10">
         <v>1</v>
@@ -3311,13 +3316,13 @@
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="E60" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F60" s="10">
         <v>4</v>
@@ -3330,13 +3335,13 @@
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E61" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F61" s="10">
         <v>1</v>
@@ -3349,13 +3354,13 @@
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F62" s="10">
         <v>1</v>
@@ -3368,13 +3373,13 @@
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F63" s="10">
         <v>1</v>
@@ -3387,13 +3392,13 @@
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F64" s="10">
         <v>3</v>
@@ -3406,13 +3411,13 @@
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E65" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F65" s="10">
         <v>1</v>
@@ -3425,13 +3430,13 @@
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F66" s="10">
         <v>1</v>
@@ -3444,13 +3449,13 @@
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F67" s="10">
         <v>1</v>
@@ -3463,13 +3468,13 @@
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="E68" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F68" s="10">
         <v>1</v>
@@ -3482,13 +3487,13 @@
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="E69" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F69" s="10">
         <v>1</v>
@@ -3501,13 +3506,13 @@
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F70" s="10">
         <v>1</v>
@@ -3520,13 +3525,13 @@
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F71" s="10">
         <v>1</v>
@@ -3539,13 +3544,13 @@
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F72" s="10">
         <v>2</v>
@@ -3558,13 +3563,13 @@
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="E73" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F73" s="10">
         <v>3</v>
@@ -3577,13 +3582,13 @@
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="F74" s="10">
         <v>1</v>
@@ -3596,13 +3601,13 @@
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F75" s="10">
         <v>1</v>
@@ -3615,13 +3620,13 @@
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="E76" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F76" s="10">
         <v>3</v>
@@ -3634,13 +3639,13 @@
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D77" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="E77" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F77" s="10">
         <v>1</v>
@@ -3653,13 +3658,13 @@
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F78" s="10">
         <v>5</v>
@@ -3672,10 +3677,10 @@
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="10">
@@ -3686,7 +3691,7 @@
     <row r="80" spans="1:7" s="5" customFormat="1" ht="14.25">
       <c r="A80" s="7"/>
       <c r="B80" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C80" s="40"/>
       <c r="D80" s="40"/>
@@ -3696,10 +3701,10 @@
     </row>
     <row r="81" spans="1:7" s="1" customFormat="1" ht="14.25">
       <c r="A81" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
@@ -3718,10 +3723,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="33" t="s">
         <v>79</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>80</v>
       </c>
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>

--- a/MT-ACcharger V1.0.0/MT-ACcharger V1.0.0贴片文件/MT- ACcharger  V1.0.0BOM.xlsx
+++ b/MT-ACcharger V1.0.0/MT-ACcharger V1.0.0贴片文件/MT- ACcharger  V1.0.0BOM.xlsx
@@ -2177,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3629,7 +3629,7 @@
         <v>136</v>
       </c>
       <c r="F76" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -3667,7 +3667,7 @@
         <v>187</v>
       </c>
       <c r="F78" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G78" s="11"/>
     </row>
